--- a/Laboratorios/Lab07/SN-FSM-EJERCICIO3.xlsx
+++ b/Laboratorios/Lab07/SN-FSM-EJERCICIO3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Gil\Desktop\Universidad\4to semestre\Electrónica digital 1\Digital_1\Laboratorios\Lab07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24FA3628-A8B6-4BBA-903F-0A1043820FFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DF9E3B-057C-4440-A65A-BA1FA4D51A25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6BF04F9-EE02-4E69-A937-818C1A454958}"/>
   </bookViews>
@@ -67,15 +67,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -83,12 +107,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,231 +447,368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA9EDD6-6A58-4A93-B2FA-10F370F9BCDC}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I18" sqref="I17:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+      <c r="A6" s="3">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
+      <c r="A8" s="3">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
         <v>0</v>
       </c>
     </row>
